--- a/BTL_CNW_BuiNgocKhanh_LeQuangHuy/excelmau.xlsx
+++ b/BTL_CNW_BuiNgocKhanh_LeQuangHuy/excelmau.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\175A071353_175A071351\BTL_CNW_BuiNgocKhanh_LeQuangHuy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>khanhbn72@wru.vn</t>
+  </si>
+  <si>
+    <t>175A071333</t>
+  </si>
+  <si>
+    <t>khanh@aa</t>
   </si>
 </sst>
 </file>
@@ -376,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,10 +436,25 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12345678</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BTL_CNW_BuiNgocKhanh_LeQuangHuy/excelmau.xlsx
+++ b/BTL_CNW_BuiNgocKhanh_LeQuangHuy/excelmau.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t>khanhbn72@wru.vn</t>
-  </si>
-  <si>
-    <t>175A071333</t>
-  </si>
-  <si>
-    <t>khanh@aa</t>
   </si>
 </sst>
 </file>
@@ -385,7 +379,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,28 +427,16 @@
         <v>12345678</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>12345678</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
